--- a/Excel_pastel.xlsx
+++ b/Excel_pastel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\OneDrive\Faculdade\Insper\2ºSemestre\Ciência dos dados\projeto2_cd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephanieliu/Desktop/GitHub/projeto2_cd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{027F06D5-77F2-48E9-80B2-46C99A0BDBF1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E59E5C7-6545-824D-A909-2D447632CA25}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="632">
   <si>
     <t>#bdsp .. pretendo ir na feira comer um pastel hoje...
 se não chover !!</t>
@@ -2044,9 +2044,6 @@
   </si>
   <si>
     <t>@araujomandss eu li "pastel de trouxa", já ia perguntar onde vendia</t>
-  </si>
-  <si>
-    <t>Classificação</t>
   </si>
   <si>
     <t>eu não tenho nem amigos imagine que leve pastel</t>
@@ -2136,7 +2133,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2458,16 +2455,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B499"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A230" zoomScale="110" workbookViewId="0">
+    <sheetView topLeftCell="A230" zoomScale="110" workbookViewId="0">
       <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="185.140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="185.1640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>498</v>
       </c>
@@ -2475,7 +2472,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2483,7 +2480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -2491,7 +2488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -2499,7 +2496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -2507,7 +2504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -2515,7 +2512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -2523,7 +2520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -2531,7 +2528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -2539,7 +2536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -2547,7 +2544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -2555,7 +2552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -2563,7 +2560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -2571,7 +2568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -2579,7 +2576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -2587,7 +2584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
@@ -2595,7 +2592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
@@ -2603,7 +2600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
@@ -2611,7 +2608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -2619,7 +2616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
@@ -2627,7 +2624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
@@ -2635,7 +2632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
@@ -2643,7 +2640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
@@ -2651,7 +2648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>22</v>
       </c>
@@ -2659,7 +2656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
@@ -2667,7 +2664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
@@ -2675,7 +2672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
@@ -2683,7 +2680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>26</v>
       </c>
@@ -2691,7 +2688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>27</v>
       </c>
@@ -2699,7 +2696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>28</v>
       </c>
@@ -2707,7 +2704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>29</v>
       </c>
@@ -2715,7 +2712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>30</v>
       </c>
@@ -2723,7 +2720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>31</v>
       </c>
@@ -2731,7 +2728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>32</v>
       </c>
@@ -2739,7 +2736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>33</v>
       </c>
@@ -2747,7 +2744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>34</v>
       </c>
@@ -2755,7 +2752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>35</v>
       </c>
@@ -2763,7 +2760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>36</v>
       </c>
@@ -2771,7 +2768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>37</v>
       </c>
@@ -2779,7 +2776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>38</v>
       </c>
@@ -2787,7 +2784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>39</v>
       </c>
@@ -2795,7 +2792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>40</v>
       </c>
@@ -2803,7 +2800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>41</v>
       </c>
@@ -2811,7 +2808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>42</v>
       </c>
@@ -2819,7 +2816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>43</v>
       </c>
@@ -2827,7 +2824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>44</v>
       </c>
@@ -2835,7 +2832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>45</v>
       </c>
@@ -2843,7 +2840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>46</v>
       </c>
@@ -2851,7 +2848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>47</v>
       </c>
@@ -2859,7 +2856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>48</v>
       </c>
@@ -2867,7 +2864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>49</v>
       </c>
@@ -2875,7 +2872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>50</v>
       </c>
@@ -2883,7 +2880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>51</v>
       </c>
@@ -2891,7 +2888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>52</v>
       </c>
@@ -2899,7 +2896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>53</v>
       </c>
@@ -2907,7 +2904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>54</v>
       </c>
@@ -2915,7 +2912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>55</v>
       </c>
@@ -2923,7 +2920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>56</v>
       </c>
@@ -2931,7 +2928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>57</v>
       </c>
@@ -2939,7 +2936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>58</v>
       </c>
@@ -2947,7 +2944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>59</v>
       </c>
@@ -2955,7 +2952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>60</v>
       </c>
@@ -2963,7 +2960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>61</v>
       </c>
@@ -2971,7 +2968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>62</v>
       </c>
@@ -2979,7 +2976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>63</v>
       </c>
@@ -2987,7 +2984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>64</v>
       </c>
@@ -2995,7 +2992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>65</v>
       </c>
@@ -3003,7 +3000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>66</v>
       </c>
@@ -3011,7 +3008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>67</v>
       </c>
@@ -3019,7 +3016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>68</v>
       </c>
@@ -3027,7 +3024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>69</v>
       </c>
@@ -3035,7 +3032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>70</v>
       </c>
@@ -3043,7 +3040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>71</v>
       </c>
@@ -3051,7 +3048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>72</v>
       </c>
@@ -3059,7 +3056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>73</v>
       </c>
@@ -3067,7 +3064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>74</v>
       </c>
@@ -3075,7 +3072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>75</v>
       </c>
@@ -3083,7 +3080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>76</v>
       </c>
@@ -3091,7 +3088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>77</v>
       </c>
@@ -3099,7 +3096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>78</v>
       </c>
@@ -3107,7 +3104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>79</v>
       </c>
@@ -3115,7 +3112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>80</v>
       </c>
@@ -3123,7 +3120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>81</v>
       </c>
@@ -3131,7 +3128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>82</v>
       </c>
@@ -3139,7 +3136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>83</v>
       </c>
@@ -3147,7 +3144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>84</v>
       </c>
@@ -3155,7 +3152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>85</v>
       </c>
@@ -3163,7 +3160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>86</v>
       </c>
@@ -3171,7 +3168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>87</v>
       </c>
@@ -3179,7 +3176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>88</v>
       </c>
@@ -3187,7 +3184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>89</v>
       </c>
@@ -3195,7 +3192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>90</v>
       </c>
@@ -3203,7 +3200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>91</v>
       </c>
@@ -3211,7 +3208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>92</v>
       </c>
@@ -3219,7 +3216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>93</v>
       </c>
@@ -3227,7 +3224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>94</v>
       </c>
@@ -3235,7 +3232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>95</v>
       </c>
@@ -3243,7 +3240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>96</v>
       </c>
@@ -3251,7 +3248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>97</v>
       </c>
@@ -3259,7 +3256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>98</v>
       </c>
@@ -3267,7 +3264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>99</v>
       </c>
@@ -3275,7 +3272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>100</v>
       </c>
@@ -3283,7 +3280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>101</v>
       </c>
@@ -3291,7 +3288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>102</v>
       </c>
@@ -3299,7 +3296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>103</v>
       </c>
@@ -3307,7 +3304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>104</v>
       </c>
@@ -3315,7 +3312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>105</v>
       </c>
@@ -3323,7 +3320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>106</v>
       </c>
@@ -3331,7 +3328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>107</v>
       </c>
@@ -3339,7 +3336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>108</v>
       </c>
@@ -3347,7 +3344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>109</v>
       </c>
@@ -3355,7 +3352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>110</v>
       </c>
@@ -3363,7 +3360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>111</v>
       </c>
@@ -3371,7 +3368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>112</v>
       </c>
@@ -3379,7 +3376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>113</v>
       </c>
@@ -3387,7 +3384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>114</v>
       </c>
@@ -3395,7 +3392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>115</v>
       </c>
@@ -3403,7 +3400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>116</v>
       </c>
@@ -3411,7 +3408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>117</v>
       </c>
@@ -3419,7 +3416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>118</v>
       </c>
@@ -3427,7 +3424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>119</v>
       </c>
@@ -3435,7 +3432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>120</v>
       </c>
@@ -3443,7 +3440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>121</v>
       </c>
@@ -3451,7 +3448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>122</v>
       </c>
@@ -3459,7 +3456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>123</v>
       </c>
@@ -3467,7 +3464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>124</v>
       </c>
@@ -3475,7 +3472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>125</v>
       </c>
@@ -3483,7 +3480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>126</v>
       </c>
@@ -3491,7 +3488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>127</v>
       </c>
@@ -3499,7 +3496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>128</v>
       </c>
@@ -3507,7 +3504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>129</v>
       </c>
@@ -3515,7 +3512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>130</v>
       </c>
@@ -3523,7 +3520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>131</v>
       </c>
@@ -3531,7 +3528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>132</v>
       </c>
@@ -3539,7 +3536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>133</v>
       </c>
@@ -3547,7 +3544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>134</v>
       </c>
@@ -3555,7 +3552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>135</v>
       </c>
@@ -3563,7 +3560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>136</v>
       </c>
@@ -3571,7 +3568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>137</v>
       </c>
@@ -3579,7 +3576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>138</v>
       </c>
@@ -3587,7 +3584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>139</v>
       </c>
@@ -3595,7 +3592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>140</v>
       </c>
@@ -3603,7 +3600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>141</v>
       </c>
@@ -3611,7 +3608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>142</v>
       </c>
@@ -3619,7 +3616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>143</v>
       </c>
@@ -3627,7 +3624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>144</v>
       </c>
@@ -3635,7 +3632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>145</v>
       </c>
@@ -3643,7 +3640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>146</v>
       </c>
@@ -3651,7 +3648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>147</v>
       </c>
@@ -3659,7 +3656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
         <v>148</v>
       </c>
@@ -3667,7 +3664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>149</v>
       </c>
@@ -3675,7 +3672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>150</v>
       </c>
@@ -3683,7 +3680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
         <v>151</v>
       </c>
@@ -3691,7 +3688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
         <v>152</v>
       </c>
@@ -3699,7 +3696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
         <v>153</v>
       </c>
@@ -3707,7 +3704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
         <v>154</v>
       </c>
@@ -3715,7 +3712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
         <v>155</v>
       </c>
@@ -3723,7 +3720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
         <v>156</v>
       </c>
@@ -3731,7 +3728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
         <v>157</v>
       </c>
@@ -3739,7 +3736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
         <v>158</v>
       </c>
@@ -3747,7 +3744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
         <v>159</v>
       </c>
@@ -3755,7 +3752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
         <v>160</v>
       </c>
@@ -3763,7 +3760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
         <v>161</v>
       </c>
@@ -3771,7 +3768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
         <v>162</v>
       </c>
@@ -3779,7 +3776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
         <v>163</v>
       </c>
@@ -3787,7 +3784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
         <v>164</v>
       </c>
@@ -3795,7 +3792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
         <v>165</v>
       </c>
@@ -3803,7 +3800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
         <v>166</v>
       </c>
@@ -3811,7 +3808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
         <v>167</v>
       </c>
@@ -3819,7 +3816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
         <v>168</v>
       </c>
@@ -3827,7 +3824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
         <v>169</v>
       </c>
@@ -3835,7 +3832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
         <v>170</v>
       </c>
@@ -3843,7 +3840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
         <v>171</v>
       </c>
@@ -3851,7 +3848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
         <v>172</v>
       </c>
@@ -3859,7 +3856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
         <v>173</v>
       </c>
@@ -3867,7 +3864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
         <v>174</v>
       </c>
@@ -3875,7 +3872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
         <v>175</v>
       </c>
@@ -3883,7 +3880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
         <v>176</v>
       </c>
@@ -3891,7 +3888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
         <v>177</v>
       </c>
@@ -3899,7 +3896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
         <v>178</v>
       </c>
@@ -3907,7 +3904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
         <v>179</v>
       </c>
@@ -3915,7 +3912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
         <v>180</v>
       </c>
@@ -3923,7 +3920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
         <v>181</v>
       </c>
@@ -3931,7 +3928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
         <v>182</v>
       </c>
@@ -3939,7 +3936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
         <v>183</v>
       </c>
@@ -3947,7 +3944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
         <v>184</v>
       </c>
@@ -3955,7 +3952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
         <v>185</v>
       </c>
@@ -3963,7 +3960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
         <v>186</v>
       </c>
@@ -3971,7 +3968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
         <v>187</v>
       </c>
@@ -3979,7 +3976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
         <v>188</v>
       </c>
@@ -3987,7 +3984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
         <v>189</v>
       </c>
@@ -3995,7 +3992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
         <v>190</v>
       </c>
@@ -4003,7 +4000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
         <v>191</v>
       </c>
@@ -4011,7 +4008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
         <v>192</v>
       </c>
@@ -4019,7 +4016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
         <v>193</v>
       </c>
@@ -4027,7 +4024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
         <v>194</v>
       </c>
@@ -4035,7 +4032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
         <v>195</v>
       </c>
@@ -4043,7 +4040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
         <v>196</v>
       </c>
@@ -4051,7 +4048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
         <v>197</v>
       </c>
@@ -4059,7 +4056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
         <v>198</v>
       </c>
@@ -4067,7 +4064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
         <v>199</v>
       </c>
@@ -4075,7 +4072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
         <v>200</v>
       </c>
@@ -4083,7 +4080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
         <v>201</v>
       </c>
@@ -4091,7 +4088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
         <v>202</v>
       </c>
@@ -4099,7 +4096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
         <v>203</v>
       </c>
@@ -4107,7 +4104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="s">
         <v>204</v>
       </c>
@@ -4115,7 +4112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
         <v>205</v>
       </c>
@@ -4123,7 +4120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
         <v>206</v>
       </c>
@@ -4131,7 +4128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
         <v>207</v>
       </c>
@@ -4139,7 +4136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
         <v>208</v>
       </c>
@@ -4147,7 +4144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
         <v>209</v>
       </c>
@@ -4155,7 +4152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
         <v>210</v>
       </c>
@@ -4163,7 +4160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
         <v>211</v>
       </c>
@@ -4171,7 +4168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
         <v>212</v>
       </c>
@@ -4179,7 +4176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
         <v>213</v>
       </c>
@@ -4187,7 +4184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
         <v>214</v>
       </c>
@@ -4195,7 +4192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
         <v>215</v>
       </c>
@@ -4203,7 +4200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
         <v>216</v>
       </c>
@@ -4211,7 +4208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
         <v>217</v>
       </c>
@@ -4219,7 +4216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
         <v>218</v>
       </c>
@@ -4227,7 +4224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
         <v>219</v>
       </c>
@@ -4235,7 +4232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
         <v>220</v>
       </c>
@@ -4243,7 +4240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
         <v>221</v>
       </c>
@@ -4251,7 +4248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
         <v>222</v>
       </c>
@@ -4259,7 +4256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
         <v>223</v>
       </c>
@@ -4267,7 +4264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
         <v>224</v>
       </c>
@@ -4275,7 +4272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
         <v>225</v>
       </c>
@@ -4283,7 +4280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
         <v>226</v>
       </c>
@@ -4291,7 +4288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
         <v>227</v>
       </c>
@@ -4299,7 +4296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="4" t="s">
         <v>228</v>
       </c>
@@ -4307,7 +4304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
         <v>229</v>
       </c>
@@ -4315,7 +4312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
         <v>230</v>
       </c>
@@ -4323,7 +4320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
         <v>231</v>
       </c>
@@ -4331,7 +4328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="4" t="s">
         <v>232</v>
       </c>
@@ -4339,7 +4336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="s">
         <v>233</v>
       </c>
@@ -4347,7 +4344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
         <v>234</v>
       </c>
@@ -4355,7 +4352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="4" t="s">
         <v>235</v>
       </c>
@@ -4363,7 +4360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="s">
         <v>236</v>
       </c>
@@ -4371,7 +4368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="4" t="s">
         <v>237</v>
       </c>
@@ -4379,7 +4376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
         <v>238</v>
       </c>
@@ -4387,7 +4384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
         <v>239</v>
       </c>
@@ -4395,7 +4392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="4" t="s">
         <v>240</v>
       </c>
@@ -4403,7 +4400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" ht="176" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
         <v>241</v>
       </c>
@@ -4411,7 +4408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" s="4" t="s">
         <v>242</v>
       </c>
@@ -4419,7 +4416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="4" t="s">
         <v>243</v>
       </c>
@@ -4427,7 +4424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="4" t="s">
         <v>244</v>
       </c>
@@ -4435,7 +4432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="4" t="s">
         <v>245</v>
       </c>
@@ -4443,7 +4440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="4" t="s">
         <v>246</v>
       </c>
@@ -4451,7 +4448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" s="4" t="s">
         <v>247</v>
       </c>
@@ -4459,7 +4456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="4" t="s">
         <v>248</v>
       </c>
@@ -4467,7 +4464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="4" t="s">
         <v>249</v>
       </c>
@@ -4475,7 +4472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
         <v>250</v>
       </c>
@@ -4483,7 +4480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="4" t="s">
         <v>251</v>
       </c>
@@ -4491,7 +4488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="4" t="s">
         <v>252</v>
       </c>
@@ -4499,7 +4496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="4" t="s">
         <v>253</v>
       </c>
@@ -4507,7 +4504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="s">
         <v>254</v>
       </c>
@@ -4515,7 +4512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="4" t="s">
         <v>255</v>
       </c>
@@ -4523,7 +4520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="4" t="s">
         <v>256</v>
       </c>
@@ -4531,7 +4528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="4" t="s">
         <v>257</v>
       </c>
@@ -4539,7 +4536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="4" t="s">
         <v>258</v>
       </c>
@@ -4547,7 +4544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="4" t="s">
         <v>259</v>
       </c>
@@ -4555,7 +4552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="4" t="s">
         <v>260</v>
       </c>
@@ -4563,7 +4560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="4" t="s">
         <v>261</v>
       </c>
@@ -4571,7 +4568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="4" t="s">
         <v>262</v>
       </c>
@@ -4579,7 +4576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="4" t="s">
         <v>263</v>
       </c>
@@ -4587,7 +4584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="4" t="s">
         <v>264</v>
       </c>
@@ -4595,7 +4592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="4" t="s">
         <v>265</v>
       </c>
@@ -4603,7 +4600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="4" t="s">
         <v>266</v>
       </c>
@@ -4611,7 +4608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="4" t="s">
         <v>267</v>
       </c>
@@ -4619,7 +4616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="4" t="s">
         <v>268</v>
       </c>
@@ -4627,7 +4624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="4" t="s">
         <v>269</v>
       </c>
@@ -4635,7 +4632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="4" t="s">
         <v>270</v>
       </c>
@@ -4643,7 +4640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="4" t="s">
         <v>271</v>
       </c>
@@ -4651,7 +4648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="4" t="s">
         <v>272</v>
       </c>
@@ -4659,7 +4656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="4" t="s">
         <v>273</v>
       </c>
@@ -4667,7 +4664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" s="4" t="s">
         <v>274</v>
       </c>
@@ -4675,7 +4672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" s="4" t="s">
         <v>275</v>
       </c>
@@ -4683,7 +4680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" s="4" t="s">
         <v>276</v>
       </c>
@@ -4691,7 +4688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" s="4" t="s">
         <v>277</v>
       </c>
@@ -4699,7 +4696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" s="4" t="s">
         <v>278</v>
       </c>
@@ -4707,7 +4704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" s="4" t="s">
         <v>279</v>
       </c>
@@ -4715,7 +4712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" s="4" t="s">
         <v>280</v>
       </c>
@@ -4723,7 +4720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="4" t="s">
         <v>281</v>
       </c>
@@ -4731,7 +4728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="4" t="s">
         <v>282</v>
       </c>
@@ -4739,7 +4736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="4" t="s">
         <v>283</v>
       </c>
@@ -4747,7 +4744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" s="4" t="s">
         <v>284</v>
       </c>
@@ -4755,7 +4752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" s="4" t="s">
         <v>285</v>
       </c>
@@ -4763,7 +4760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" s="4" t="s">
         <v>286</v>
       </c>
@@ -4771,7 +4768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" s="4" t="s">
         <v>287</v>
       </c>
@@ -4779,7 +4776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" s="4" t="s">
         <v>288</v>
       </c>
@@ -4787,7 +4784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="4" t="s">
         <v>289</v>
       </c>
@@ -4795,7 +4792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="4" t="s">
         <v>290</v>
       </c>
@@ -4803,7 +4800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="4" t="s">
         <v>291</v>
       </c>
@@ -4811,7 +4808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="4" t="s">
         <v>292</v>
       </c>
@@ -4819,7 +4816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="4" t="s">
         <v>293</v>
       </c>
@@ -4827,7 +4824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" s="4" t="s">
         <v>294</v>
       </c>
@@ -4835,7 +4832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="4" t="s">
         <v>295</v>
       </c>
@@ -4843,7 +4840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" s="4" t="s">
         <v>296</v>
       </c>
@@ -4851,7 +4848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="4" t="s">
         <v>297</v>
       </c>
@@ -4859,7 +4856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="4" t="s">
         <v>298</v>
       </c>
@@ -4867,7 +4864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="4" t="s">
         <v>299</v>
       </c>
@@ -4875,7 +4872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" s="4" t="s">
         <v>300</v>
       </c>
@@ -4883,7 +4880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="4" t="s">
         <v>301</v>
       </c>
@@ -4891,7 +4888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="4" t="s">
         <v>302</v>
       </c>
@@ -4899,7 +4896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="4" t="s">
         <v>303</v>
       </c>
@@ -4907,7 +4904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="4" t="s">
         <v>304</v>
       </c>
@@ -4915,7 +4912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="4" t="s">
         <v>305</v>
       </c>
@@ -4923,7 +4920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" s="4" t="s">
         <v>306</v>
       </c>
@@ -4931,7 +4928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" s="4" t="s">
         <v>307</v>
       </c>
@@ -4939,7 +4936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" s="4" t="s">
         <v>308</v>
       </c>
@@ -4947,7 +4944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" s="4" t="s">
         <v>309</v>
       </c>
@@ -4955,7 +4952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" s="4" t="s">
         <v>310</v>
       </c>
@@ -4963,7 +4960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="4" t="s">
         <v>311</v>
       </c>
@@ -4971,7 +4968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="4" t="s">
         <v>312</v>
       </c>
@@ -4979,7 +4976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="4" t="s">
         <v>313</v>
       </c>
@@ -4987,7 +4984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" s="4" t="s">
         <v>314</v>
       </c>
@@ -4995,7 +4992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" s="4" t="s">
         <v>315</v>
       </c>
@@ -5003,7 +5000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" s="4" t="s">
         <v>316</v>
       </c>
@@ -5011,7 +5008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" s="4" t="s">
         <v>317</v>
       </c>
@@ -5019,7 +5016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" s="4" t="s">
         <v>318</v>
       </c>
@@ -5027,7 +5024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" s="4" t="s">
         <v>319</v>
       </c>
@@ -5035,7 +5032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" s="4" t="s">
         <v>320</v>
       </c>
@@ -5043,7 +5040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" s="4" t="s">
         <v>321</v>
       </c>
@@ -5051,7 +5048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" s="4" t="s">
         <v>322</v>
       </c>
@@ -5059,7 +5056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" s="4" t="s">
         <v>323</v>
       </c>
@@ -5067,7 +5064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" s="4" t="s">
         <v>324</v>
       </c>
@@ -5075,7 +5072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" s="4" t="s">
         <v>325</v>
       </c>
@@ -5083,7 +5080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" s="4" t="s">
         <v>326</v>
       </c>
@@ -5091,7 +5088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" s="4" t="s">
         <v>327</v>
       </c>
@@ -5099,7 +5096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" s="4" t="s">
         <v>328</v>
       </c>
@@ -5107,7 +5104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" s="4" t="s">
         <v>329</v>
       </c>
@@ -5115,7 +5112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" s="4" t="s">
         <v>330</v>
       </c>
@@ -5123,7 +5120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" s="4" t="s">
         <v>331</v>
       </c>
@@ -5131,7 +5128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" s="4" t="s">
         <v>332</v>
       </c>
@@ -5139,7 +5136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="4" t="s">
         <v>333</v>
       </c>
@@ -5147,7 +5144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" s="4" t="s">
         <v>334</v>
       </c>
@@ -5155,7 +5152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" s="4" t="s">
         <v>335</v>
       </c>
@@ -5163,7 +5160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" s="4" t="s">
         <v>336</v>
       </c>
@@ -5171,7 +5168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" s="4" t="s">
         <v>337</v>
       </c>
@@ -5179,7 +5176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" s="4" t="s">
         <v>338</v>
       </c>
@@ -5187,7 +5184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" s="4" t="s">
         <v>339</v>
       </c>
@@ -5195,7 +5192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" s="4" t="s">
         <v>340</v>
       </c>
@@ -5203,7 +5200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" s="4" t="s">
         <v>341</v>
       </c>
@@ -5211,7 +5208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" s="4" t="s">
         <v>342</v>
       </c>
@@ -5219,7 +5216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" s="4" t="s">
         <v>343</v>
       </c>
@@ -5227,7 +5224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" s="4" t="s">
         <v>344</v>
       </c>
@@ -5235,7 +5232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" s="4" t="s">
         <v>345</v>
       </c>
@@ -5243,7 +5240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" s="4" t="s">
         <v>346</v>
       </c>
@@ -5251,7 +5248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" s="4" t="s">
         <v>347</v>
       </c>
@@ -5259,7 +5256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" s="4" t="s">
         <v>348</v>
       </c>
@@ -5267,7 +5264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" s="4" t="s">
         <v>349</v>
       </c>
@@ -5275,7 +5272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" s="4" t="s">
         <v>350</v>
       </c>
@@ -5283,7 +5280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" s="4" t="s">
         <v>351</v>
       </c>
@@ -5291,7 +5288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" s="4" t="s">
         <v>352</v>
       </c>
@@ -5299,7 +5296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" s="4" t="s">
         <v>353</v>
       </c>
@@ -5307,7 +5304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" s="4" t="s">
         <v>354</v>
       </c>
@@ -5315,7 +5312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" s="4" t="s">
         <v>355</v>
       </c>
@@ -5323,7 +5320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" s="4" t="s">
         <v>356</v>
       </c>
@@ -5331,7 +5328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" s="4" t="s">
         <v>357</v>
       </c>
@@ -5339,7 +5336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" s="4" t="s">
         <v>358</v>
       </c>
@@ -5347,7 +5344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" s="4" t="s">
         <v>359</v>
       </c>
@@ -5355,7 +5352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" s="4" t="s">
         <v>360</v>
       </c>
@@ -5363,7 +5360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" s="4" t="s">
         <v>361</v>
       </c>
@@ -5371,7 +5368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" s="4" t="s">
         <v>362</v>
       </c>
@@ -5379,7 +5376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" s="4" t="s">
         <v>363</v>
       </c>
@@ -5387,7 +5384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" s="4" t="s">
         <v>364</v>
       </c>
@@ -5395,15 +5392,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B367">
         <v>2</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" s="4" t="s">
         <v>366</v>
       </c>
@@ -5411,7 +5408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" s="4" t="s">
         <v>367</v>
       </c>
@@ -5419,7 +5416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" s="4" t="s">
         <v>368</v>
       </c>
@@ -5427,7 +5424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" s="4" t="s">
         <v>369</v>
       </c>
@@ -5435,7 +5432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" s="4" t="s">
         <v>370</v>
       </c>
@@ -5443,7 +5440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" s="4" t="s">
         <v>371</v>
       </c>
@@ -5451,7 +5448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" s="4" t="s">
         <v>372</v>
       </c>
@@ -5459,7 +5456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" s="4" t="s">
         <v>373</v>
       </c>
@@ -5467,7 +5464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" s="4" t="s">
         <v>374</v>
       </c>
@@ -5475,7 +5472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" s="4" t="s">
         <v>375</v>
       </c>
@@ -5483,7 +5480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" s="4" t="s">
         <v>376</v>
       </c>
@@ -5491,7 +5488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A379" s="2" t="s">
         <v>377</v>
       </c>
@@ -5499,7 +5496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" s="4" t="s">
         <v>378</v>
       </c>
@@ -5507,7 +5504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" s="4" t="s">
         <v>379</v>
       </c>
@@ -5515,7 +5512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" s="4" t="s">
         <v>380</v>
       </c>
@@ -5523,7 +5520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" s="4" t="s">
         <v>381</v>
       </c>
@@ -5531,7 +5528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" s="4" t="s">
         <v>382</v>
       </c>
@@ -5539,7 +5536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" s="4" t="s">
         <v>383</v>
       </c>
@@ -5547,7 +5544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" s="4" t="s">
         <v>384</v>
       </c>
@@ -5555,7 +5552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" s="4" t="s">
         <v>385</v>
       </c>
@@ -5563,7 +5560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" s="4" t="s">
         <v>386</v>
       </c>
@@ -5571,7 +5568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" s="4" t="s">
         <v>387</v>
       </c>
@@ -5579,7 +5576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" s="4" t="s">
         <v>388</v>
       </c>
@@ -5587,7 +5584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" s="4" t="s">
         <v>389</v>
       </c>
@@ -5595,7 +5592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" s="4" t="s">
         <v>390</v>
       </c>
@@ -5603,7 +5600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" s="4" t="s">
         <v>391</v>
       </c>
@@ -5611,7 +5608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" s="4" t="s">
         <v>392</v>
       </c>
@@ -5619,7 +5616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" s="4" t="s">
         <v>393</v>
       </c>
@@ -5627,7 +5624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" s="4" t="s">
         <v>394</v>
       </c>
@@ -5635,7 +5632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" s="4" t="s">
         <v>395</v>
       </c>
@@ -5643,7 +5640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" s="4" t="s">
         <v>396</v>
       </c>
@@ -5651,7 +5648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" s="4" t="s">
         <v>397</v>
       </c>
@@ -5659,7 +5656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" s="4" t="s">
         <v>398</v>
       </c>
@@ -5667,7 +5664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" s="4" t="s">
         <v>399</v>
       </c>
@@ -5675,7 +5672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" s="4" t="s">
         <v>400</v>
       </c>
@@ -5683,7 +5680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" s="4" t="s">
         <v>401</v>
       </c>
@@ -5691,7 +5688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" s="4" t="s">
         <v>402</v>
       </c>
@@ -5699,7 +5696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" s="4" t="s">
         <v>403</v>
       </c>
@@ -5707,7 +5704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" s="4" t="s">
         <v>404</v>
       </c>
@@ -5715,7 +5712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" s="4" t="s">
         <v>405</v>
       </c>
@@ -5723,7 +5720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" s="4" t="s">
         <v>406</v>
       </c>
@@ -5731,7 +5728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" s="4" t="s">
         <v>407</v>
       </c>
@@ -5739,7 +5736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" s="4" t="s">
         <v>408</v>
       </c>
@@ -5747,7 +5744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" s="4" t="s">
         <v>409</v>
       </c>
@@ -5755,7 +5752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" s="4" t="s">
         <v>410</v>
       </c>
@@ -5763,7 +5760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" s="4" t="s">
         <v>411</v>
       </c>
@@ -5771,7 +5768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" s="4" t="s">
         <v>412</v>
       </c>
@@ -5779,7 +5776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" s="4" t="s">
         <v>413</v>
       </c>
@@ -5787,7 +5784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" s="4" t="s">
         <v>414</v>
       </c>
@@ -5795,7 +5792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" s="4" t="s">
         <v>415</v>
       </c>
@@ -5803,7 +5800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" s="4" t="s">
         <v>416</v>
       </c>
@@ -5811,7 +5808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" s="4" t="s">
         <v>417</v>
       </c>
@@ -5819,7 +5816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" s="4" t="s">
         <v>418</v>
       </c>
@@ -5827,7 +5824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" s="4" t="s">
         <v>419</v>
       </c>
@@ -5835,7 +5832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" s="4" t="s">
         <v>420</v>
       </c>
@@ -5843,7 +5840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" s="4" t="s">
         <v>421</v>
       </c>
@@ -5851,7 +5848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" s="4" t="s">
         <v>422</v>
       </c>
@@ -5859,7 +5856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" s="4" t="s">
         <v>423</v>
       </c>
@@ -5867,7 +5864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" s="4" t="s">
         <v>424</v>
       </c>
@@ -5875,7 +5872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" s="4" t="s">
         <v>425</v>
       </c>
@@ -5883,7 +5880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" s="4" t="s">
         <v>426</v>
       </c>
@@ -5891,7 +5888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" s="4" t="s">
         <v>427</v>
       </c>
@@ -5899,7 +5896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" s="4" t="s">
         <v>428</v>
       </c>
@@ -5907,7 +5904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" s="4" t="s">
         <v>429</v>
       </c>
@@ -5915,7 +5912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" s="4" t="s">
         <v>430</v>
       </c>
@@ -5923,7 +5920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" s="4" t="s">
         <v>431</v>
       </c>
@@ -5931,7 +5928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" s="4" t="s">
         <v>432</v>
       </c>
@@ -5939,7 +5936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" s="4" t="s">
         <v>433</v>
       </c>
@@ -5947,7 +5944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" s="4" t="s">
         <v>434</v>
       </c>
@@ -5955,7 +5952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" s="4" t="s">
         <v>435</v>
       </c>
@@ -5963,7 +5960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" s="4" t="s">
         <v>436</v>
       </c>
@@ -5971,7 +5968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" s="4" t="s">
         <v>437</v>
       </c>
@@ -5979,7 +5976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" s="4" t="s">
         <v>438</v>
       </c>
@@ -5987,7 +5984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" s="4" t="s">
         <v>439</v>
       </c>
@@ -5995,7 +5992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="442" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A442" s="2" t="s">
         <v>440</v>
       </c>
@@ -6003,7 +6000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" s="4" t="s">
         <v>441</v>
       </c>
@@ -6011,7 +6008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" s="4" t="s">
         <v>213</v>
       </c>
@@ -6019,7 +6016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" s="4" t="s">
         <v>442</v>
       </c>
@@ -6027,7 +6024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" s="4" t="s">
         <v>443</v>
       </c>
@@ -6035,7 +6032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" s="4" t="s">
         <v>444</v>
       </c>
@@ -6043,7 +6040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" s="4" t="s">
         <v>445</v>
       </c>
@@ -6051,7 +6048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" s="4" t="s">
         <v>446</v>
       </c>
@@ -6059,7 +6056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" s="4" t="s">
         <v>447</v>
       </c>
@@ -6067,7 +6064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" s="4" t="s">
         <v>448</v>
       </c>
@@ -6075,7 +6072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" s="4" t="s">
         <v>449</v>
       </c>
@@ -6083,7 +6080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" s="4" t="s">
         <v>450</v>
       </c>
@@ -6091,7 +6088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" s="4" t="s">
         <v>451</v>
       </c>
@@ -6099,7 +6096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" s="4" t="s">
         <v>452</v>
       </c>
@@ -6107,7 +6104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" s="4" t="s">
         <v>453</v>
       </c>
@@ -6115,7 +6112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" s="4" t="s">
         <v>454</v>
       </c>
@@ -6123,7 +6120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" s="4" t="s">
         <v>455</v>
       </c>
@@ -6131,7 +6128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" s="4" t="s">
         <v>456</v>
       </c>
@@ -6139,7 +6136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" s="4" t="s">
         <v>457</v>
       </c>
@@ -6147,7 +6144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" ht="144" x14ac:dyDescent="0.2">
       <c r="A461" s="2" t="s">
         <v>458</v>
       </c>
@@ -6155,7 +6152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" s="4" t="s">
         <v>459</v>
       </c>
@@ -6163,7 +6160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" s="4" t="s">
         <v>460</v>
       </c>
@@ -6171,7 +6168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" s="4" t="s">
         <v>461</v>
       </c>
@@ -6179,7 +6176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" s="4" t="s">
         <v>462</v>
       </c>
@@ -6187,7 +6184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" s="4" t="s">
         <v>463</v>
       </c>
@@ -6195,7 +6192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" s="4" t="s">
         <v>464</v>
       </c>
@@ -6203,7 +6200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" s="4" t="s">
         <v>465</v>
       </c>
@@ -6211,7 +6208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" s="4" t="s">
         <v>466</v>
       </c>
@@ -6219,7 +6216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" s="4" t="s">
         <v>467</v>
       </c>
@@ -6227,7 +6224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" s="4" t="s">
         <v>468</v>
       </c>
@@ -6235,7 +6232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" s="4" t="s">
         <v>469</v>
       </c>
@@ -6243,7 +6240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" s="4" t="s">
         <v>470</v>
       </c>
@@ -6251,7 +6248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" s="4" t="s">
         <v>471</v>
       </c>
@@ -6259,7 +6256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" s="4" t="s">
         <v>472</v>
       </c>
@@ -6267,7 +6264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" s="4" t="s">
         <v>473</v>
       </c>
@@ -6275,7 +6272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" s="4" t="s">
         <v>474</v>
       </c>
@@ -6283,7 +6280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" s="4" t="s">
         <v>475</v>
       </c>
@@ -6291,7 +6288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" s="4" t="s">
         <v>476</v>
       </c>
@@ -6299,7 +6296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" s="4" t="s">
         <v>477</v>
       </c>
@@ -6307,7 +6304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" s="4" t="s">
         <v>478</v>
       </c>
@@ -6315,7 +6312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" s="4" t="s">
         <v>479</v>
       </c>
@@ -6323,7 +6320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" s="4" t="s">
         <v>480</v>
       </c>
@@ -6331,7 +6328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" s="4" t="s">
         <v>481</v>
       </c>
@@ -6339,7 +6336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" s="4" t="s">
         <v>482</v>
       </c>
@@ -6347,7 +6344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" s="4" t="s">
         <v>483</v>
       </c>
@@ -6355,7 +6352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" s="4" t="s">
         <v>484</v>
       </c>
@@ -6363,7 +6360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" s="4" t="s">
         <v>485</v>
       </c>
@@ -6371,7 +6368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" s="4" t="s">
         <v>486</v>
       </c>
@@ -6379,7 +6376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" s="4" t="s">
         <v>487</v>
       </c>
@@ -6387,7 +6384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" s="4" t="s">
         <v>488</v>
       </c>
@@ -6395,7 +6392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" s="4" t="s">
         <v>489</v>
       </c>
@@ -6403,7 +6400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" s="4" t="s">
         <v>490</v>
       </c>
@@ -6411,7 +6408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" s="4" t="s">
         <v>491</v>
       </c>
@@ -6419,7 +6416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" s="4" t="s">
         <v>492</v>
       </c>
@@ -6427,7 +6424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" s="4" t="s">
         <v>493</v>
       </c>
@@ -6435,7 +6432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" s="4" t="s">
         <v>494</v>
       </c>
@@ -6443,7 +6440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" s="4" t="s">
         <v>495</v>
       </c>
@@ -6451,7 +6448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" s="4" t="s">
         <v>496</v>
       </c>
@@ -6468,1760 +6465,1760 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF64AAF-84FB-4C5C-BBE5-C3AE86427645}">
   <dimension ref="A1:B349"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="237.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="237.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>500</v>
       </c>
       <c r="B1" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>99</v>
       </c>

--- a/Excel_pastel.xlsx
+++ b/Excel_pastel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephanieliu/Desktop/GitHub/projeto2_cd/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\OneDrive\Faculdade\Insper\2ºSemestre\Ciência dos dados\projeto2_cd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E59E5C7-6545-824D-A909-2D447632CA25}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{4E59E5C7-6545-824D-A909-2D447632CA25}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{7355F577-01A9-400C-BF97-5D624BBB3536}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -2133,7 +2133,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2459,12 +2459,12 @@
       <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="185.1640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="185.109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>498</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>22</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>26</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>27</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>28</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>29</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>30</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>31</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>32</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>33</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>34</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>35</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>36</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>37</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>38</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>39</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>40</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>41</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>42</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>43</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>44</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>45</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>46</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>47</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>48</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>49</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>50</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>51</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>52</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>53</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>54</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>55</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>56</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>57</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>58</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>59</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>60</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>61</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>62</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>63</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>64</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>65</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>66</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>67</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>68</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>69</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>70</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>71</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>72</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>73</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>74</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>75</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>76</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>77</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>78</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>79</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>80</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>81</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>82</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>83</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>84</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>85</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>86</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>87</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>88</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>89</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>90</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>91</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>92</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>93</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>94</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>95</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>96</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>97</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>98</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>99</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
         <v>100</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
         <v>101</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
         <v>102</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>103</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>104</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
         <v>105</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
         <v>106</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
         <v>107</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>108</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
         <v>109</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>110</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
         <v>111</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>112</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
         <v>113</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
         <v>114</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
         <v>115</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
         <v>116</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
         <v>117</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
         <v>118</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
         <v>119</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>120</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
         <v>121</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
         <v>122</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
         <v>123</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
         <v>124</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
         <v>125</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
         <v>126</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
         <v>127</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
         <v>128</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
         <v>129</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
         <v>130</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
         <v>131</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
         <v>132</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
         <v>133</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
         <v>134</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
         <v>135</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
         <v>136</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
         <v>137</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
         <v>138</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
         <v>139</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
         <v>140</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
         <v>141</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
         <v>142</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
         <v>143</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
         <v>144</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
         <v>145</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
         <v>146</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
         <v>147</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
         <v>148</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
         <v>149</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
         <v>150</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
         <v>151</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
         <v>152</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
         <v>153</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
         <v>154</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
         <v>155</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
         <v>156</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
         <v>157</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
         <v>158</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
         <v>159</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
         <v>160</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
         <v>161</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
         <v>162</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
         <v>163</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
         <v>164</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
         <v>165</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
         <v>166</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
         <v>167</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
         <v>168</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
         <v>169</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
         <v>170</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
         <v>171</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
         <v>172</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
         <v>173</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
         <v>174</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
         <v>175</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
         <v>176</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
         <v>177</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="4" t="s">
         <v>178</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="4" t="s">
         <v>179</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
         <v>180</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
         <v>181</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
         <v>182</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="4" t="s">
         <v>183</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
         <v>184</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
         <v>185</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
         <v>186</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
         <v>187</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="4" t="s">
         <v>188</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
         <v>189</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
         <v>190</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
         <v>191</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
         <v>192</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
         <v>193</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
         <v>194</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
         <v>195</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
         <v>196</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
         <v>197</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
         <v>198</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
         <v>199</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
         <v>200</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="4" t="s">
         <v>201</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
         <v>202</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="4" t="s">
         <v>203</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
         <v>204</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="4" t="s">
         <v>205</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
         <v>206</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="4" t="s">
         <v>207</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="4" t="s">
         <v>208</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
         <v>209</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="4" t="s">
         <v>210</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="4" t="s">
         <v>211</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
         <v>212</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="4" t="s">
         <v>213</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
         <v>214</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="4" t="s">
         <v>215</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
         <v>216</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
         <v>217</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="4" t="s">
         <v>218</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="4" t="s">
         <v>219</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="4" t="s">
         <v>220</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="4" t="s">
         <v>221</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="4" t="s">
         <v>222</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="4" t="s">
         <v>223</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="4" t="s">
         <v>224</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="4" t="s">
         <v>225</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
         <v>226</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="4" t="s">
         <v>227</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="4" t="s">
         <v>228</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="4" t="s">
         <v>229</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="4" t="s">
         <v>230</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="4" t="s">
         <v>231</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="4" t="s">
         <v>232</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="4" t="s">
         <v>233</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="4" t="s">
         <v>234</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="4" t="s">
         <v>235</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="4" t="s">
         <v>236</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="4" t="s">
         <v>237</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" s="4" t="s">
         <v>238</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="4" t="s">
         <v>239</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="4" t="s">
         <v>240</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="176" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>241</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="4" t="s">
         <v>242</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="4" t="s">
         <v>243</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" s="4" t="s">
         <v>244</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="4" t="s">
         <v>245</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" s="4" t="s">
         <v>246</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" s="4" t="s">
         <v>247</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" s="4" t="s">
         <v>248</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" s="4" t="s">
         <v>249</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" s="4" t="s">
         <v>250</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" s="4" t="s">
         <v>251</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" s="4" t="s">
         <v>252</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" s="4" t="s">
         <v>253</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" s="4" t="s">
         <v>254</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" s="4" t="s">
         <v>255</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" s="4" t="s">
         <v>256</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" s="4" t="s">
         <v>257</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" s="4" t="s">
         <v>258</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" s="4" t="s">
         <v>259</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" s="4" t="s">
         <v>260</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" s="4" t="s">
         <v>261</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" s="4" t="s">
         <v>262</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" s="4" t="s">
         <v>263</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" s="4" t="s">
         <v>264</v>
       </c>
@@ -4592,7 +4592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" s="4" t="s">
         <v>265</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" s="4" t="s">
         <v>266</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" s="4" t="s">
         <v>267</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" s="4" t="s">
         <v>268</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" s="4" t="s">
         <v>269</v>
       </c>
@@ -4632,7 +4632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" s="4" t="s">
         <v>270</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" s="4" t="s">
         <v>271</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" s="4" t="s">
         <v>272</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" s="4" t="s">
         <v>273</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" s="4" t="s">
         <v>274</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" s="4" t="s">
         <v>275</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" s="4" t="s">
         <v>276</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" s="4" t="s">
         <v>277</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" s="4" t="s">
         <v>278</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" s="4" t="s">
         <v>279</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" s="4" t="s">
         <v>280</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" s="4" t="s">
         <v>281</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" s="4" t="s">
         <v>282</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" s="4" t="s">
         <v>283</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" s="4" t="s">
         <v>284</v>
       </c>
@@ -4752,7 +4752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" s="4" t="s">
         <v>285</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" s="4" t="s">
         <v>286</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" s="4" t="s">
         <v>287</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" s="4" t="s">
         <v>288</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" s="4" t="s">
         <v>289</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" s="4" t="s">
         <v>290</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" s="4" t="s">
         <v>291</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" s="4" t="s">
         <v>292</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" s="4" t="s">
         <v>293</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" s="4" t="s">
         <v>294</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" s="4" t="s">
         <v>295</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" s="4" t="s">
         <v>296</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" s="4" t="s">
         <v>297</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" s="4" t="s">
         <v>298</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" s="4" t="s">
         <v>299</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" s="4" t="s">
         <v>300</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" s="4" t="s">
         <v>301</v>
       </c>
@@ -4888,7 +4888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" s="4" t="s">
         <v>302</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" s="4" t="s">
         <v>303</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" s="4" t="s">
         <v>304</v>
       </c>
@@ -4912,7 +4912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" s="4" t="s">
         <v>305</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" s="4" t="s">
         <v>306</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" s="4" t="s">
         <v>307</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" s="4" t="s">
         <v>308</v>
       </c>
@@ -4944,7 +4944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" s="4" t="s">
         <v>309</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" s="4" t="s">
         <v>310</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" s="4" t="s">
         <v>311</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" s="4" t="s">
         <v>312</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" s="4" t="s">
         <v>313</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" s="4" t="s">
         <v>314</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" s="4" t="s">
         <v>315</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" s="4" t="s">
         <v>316</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" s="4" t="s">
         <v>317</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" s="4" t="s">
         <v>318</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" s="4" t="s">
         <v>319</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" s="4" t="s">
         <v>320</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" s="4" t="s">
         <v>321</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" s="4" t="s">
         <v>322</v>
       </c>
@@ -5056,7 +5056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" s="4" t="s">
         <v>323</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" s="4" t="s">
         <v>324</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" s="4" t="s">
         <v>325</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" s="4" t="s">
         <v>326</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" s="4" t="s">
         <v>327</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" s="4" t="s">
         <v>328</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" s="4" t="s">
         <v>329</v>
       </c>
@@ -5112,7 +5112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" s="4" t="s">
         <v>330</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" s="4" t="s">
         <v>331</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" s="4" t="s">
         <v>332</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" s="4" t="s">
         <v>333</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" s="4" t="s">
         <v>334</v>
       </c>
@@ -5152,7 +5152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" s="4" t="s">
         <v>335</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" s="4" t="s">
         <v>336</v>
       </c>
@@ -5168,7 +5168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" s="4" t="s">
         <v>337</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" s="4" t="s">
         <v>338</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" s="4" t="s">
         <v>339</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" s="4" t="s">
         <v>340</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" s="4" t="s">
         <v>341</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" s="4" t="s">
         <v>342</v>
       </c>
@@ -5216,7 +5216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" s="4" t="s">
         <v>343</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" s="4" t="s">
         <v>344</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" s="4" t="s">
         <v>345</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" s="4" t="s">
         <v>346</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" s="4" t="s">
         <v>347</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" s="4" t="s">
         <v>348</v>
       </c>
@@ -5264,7 +5264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" s="4" t="s">
         <v>349</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" s="4" t="s">
         <v>350</v>
       </c>
@@ -5280,7 +5280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" s="4" t="s">
         <v>351</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" s="4" t="s">
         <v>352</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" s="4" t="s">
         <v>353</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" s="4" t="s">
         <v>354</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" s="4" t="s">
         <v>355</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" s="4" t="s">
         <v>356</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" s="4" t="s">
         <v>357</v>
       </c>
@@ -5336,7 +5336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" s="4" t="s">
         <v>358</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" s="4" t="s">
         <v>359</v>
       </c>
@@ -5352,7 +5352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" s="4" t="s">
         <v>360</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" s="4" t="s">
         <v>361</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" s="4" t="s">
         <v>362</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" s="4" t="s">
         <v>363</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" s="4" t="s">
         <v>364</v>
       </c>
@@ -5392,7 +5392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" s="4" t="s">
         <v>631</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" s="4" t="s">
         <v>366</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" s="4" t="s">
         <v>367</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" s="4" t="s">
         <v>368</v>
       </c>
@@ -5424,7 +5424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" s="4" t="s">
         <v>369</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" s="4" t="s">
         <v>370</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" s="4" t="s">
         <v>371</v>
       </c>
@@ -5448,7 +5448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" s="4" t="s">
         <v>372</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" s="4" t="s">
         <v>373</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" s="4" t="s">
         <v>374</v>
       </c>
@@ -5472,7 +5472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" s="4" t="s">
         <v>375</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" s="4" t="s">
         <v>376</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:2" ht="112" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
         <v>377</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" s="4" t="s">
         <v>378</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" s="4" t="s">
         <v>379</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" s="4" t="s">
         <v>380</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" s="4" t="s">
         <v>381</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" s="4" t="s">
         <v>382</v>
       </c>
@@ -5536,7 +5536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" s="4" t="s">
         <v>383</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" s="4" t="s">
         <v>384</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" s="4" t="s">
         <v>385</v>
       </c>
@@ -5560,7 +5560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" s="4" t="s">
         <v>386</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" s="4" t="s">
         <v>387</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" s="4" t="s">
         <v>388</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" s="4" t="s">
         <v>389</v>
       </c>
@@ -5592,7 +5592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" s="4" t="s">
         <v>390</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" s="4" t="s">
         <v>391</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" s="4" t="s">
         <v>392</v>
       </c>
@@ -5616,7 +5616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" s="4" t="s">
         <v>393</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" s="4" t="s">
         <v>394</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" s="4" t="s">
         <v>395</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" s="4" t="s">
         <v>396</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" s="4" t="s">
         <v>397</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" s="4" t="s">
         <v>398</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" s="4" t="s">
         <v>399</v>
       </c>
@@ -5672,7 +5672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" s="4" t="s">
         <v>400</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" s="4" t="s">
         <v>401</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" s="4" t="s">
         <v>402</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" s="4" t="s">
         <v>403</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" s="4" t="s">
         <v>404</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" s="4" t="s">
         <v>405</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" s="4" t="s">
         <v>406</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" s="4" t="s">
         <v>407</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" s="4" t="s">
         <v>408</v>
       </c>
@@ -5744,7 +5744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" s="4" t="s">
         <v>409</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" s="4" t="s">
         <v>410</v>
       </c>
@@ -5760,7 +5760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" s="4" t="s">
         <v>411</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" s="4" t="s">
         <v>412</v>
       </c>
@@ -5776,7 +5776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" s="4" t="s">
         <v>413</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" s="4" t="s">
         <v>414</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" s="4" t="s">
         <v>415</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" s="4" t="s">
         <v>416</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" s="4" t="s">
         <v>417</v>
       </c>
@@ -5816,7 +5816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" s="4" t="s">
         <v>418</v>
       </c>
@@ -5824,7 +5824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" s="4" t="s">
         <v>419</v>
       </c>
@@ -5832,7 +5832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" s="4" t="s">
         <v>420</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" s="4" t="s">
         <v>421</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" s="4" t="s">
         <v>422</v>
       </c>
@@ -5856,7 +5856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" s="4" t="s">
         <v>423</v>
       </c>
@@ -5864,7 +5864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" s="4" t="s">
         <v>424</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" s="4" t="s">
         <v>425</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" s="4" t="s">
         <v>426</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" s="4" t="s">
         <v>427</v>
       </c>
@@ -5896,7 +5896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" s="4" t="s">
         <v>428</v>
       </c>
@@ -5904,7 +5904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" s="4" t="s">
         <v>429</v>
       </c>
@@ -5912,7 +5912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" s="4" t="s">
         <v>430</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" s="4" t="s">
         <v>431</v>
       </c>
@@ -5928,7 +5928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" s="4" t="s">
         <v>432</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" s="4" t="s">
         <v>433</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" s="4" t="s">
         <v>434</v>
       </c>
@@ -5952,7 +5952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" s="4" t="s">
         <v>435</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" s="4" t="s">
         <v>436</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" s="4" t="s">
         <v>437</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" s="4" t="s">
         <v>438</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" s="4" t="s">
         <v>439</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="442" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A442" s="2" t="s">
         <v>440</v>
       </c>
@@ -6000,7 +6000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" s="4" t="s">
         <v>441</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" s="4" t="s">
         <v>213</v>
       </c>
@@ -6016,7 +6016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" s="4" t="s">
         <v>442</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" s="4" t="s">
         <v>443</v>
       </c>
@@ -6032,7 +6032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" s="4" t="s">
         <v>444</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" s="4" t="s">
         <v>445</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" s="4" t="s">
         <v>446</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" s="4" t="s">
         <v>447</v>
       </c>
@@ -6064,7 +6064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" s="4" t="s">
         <v>448</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" s="4" t="s">
         <v>449</v>
       </c>
@@ -6080,7 +6080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" s="4" t="s">
         <v>450</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" s="4" t="s">
         <v>451</v>
       </c>
@@ -6096,7 +6096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" s="4" t="s">
         <v>452</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" s="4" t="s">
         <v>453</v>
       </c>
@@ -6112,7 +6112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" s="4" t="s">
         <v>454</v>
       </c>
@@ -6120,7 +6120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" s="4" t="s">
         <v>455</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" s="4" t="s">
         <v>456</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" s="4" t="s">
         <v>457</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A461" s="2" t="s">
         <v>458</v>
       </c>
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" s="4" t="s">
         <v>459</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" s="4" t="s">
         <v>460</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" s="4" t="s">
         <v>461</v>
       </c>
@@ -6176,7 +6176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465" s="4" t="s">
         <v>462</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" s="4" t="s">
         <v>463</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467" s="4" t="s">
         <v>464</v>
       </c>
@@ -6200,7 +6200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" s="4" t="s">
         <v>465</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469" s="4" t="s">
         <v>466</v>
       </c>
@@ -6216,7 +6216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" s="4" t="s">
         <v>467</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471" s="4" t="s">
         <v>468</v>
       </c>
@@ -6232,7 +6232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" s="4" t="s">
         <v>469</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" s="4" t="s">
         <v>470</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" s="4" t="s">
         <v>471</v>
       </c>
@@ -6256,7 +6256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475" s="4" t="s">
         <v>472</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" s="4" t="s">
         <v>473</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" s="4" t="s">
         <v>474</v>
       </c>
@@ -6280,7 +6280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" s="4" t="s">
         <v>475</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479" s="4" t="s">
         <v>476</v>
       </c>
@@ -6296,7 +6296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" s="4" t="s">
         <v>477</v>
       </c>
@@ -6304,7 +6304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481" s="4" t="s">
         <v>478</v>
       </c>
@@ -6312,7 +6312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" s="4" t="s">
         <v>479</v>
       </c>
@@ -6320,7 +6320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" s="4" t="s">
         <v>480</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484" s="4" t="s">
         <v>481</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485" s="4" t="s">
         <v>482</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" s="4" t="s">
         <v>483</v>
       </c>
@@ -6352,7 +6352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" s="4" t="s">
         <v>484</v>
       </c>
@@ -6360,7 +6360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" s="4" t="s">
         <v>485</v>
       </c>
@@ -6368,7 +6368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489" s="4" t="s">
         <v>486</v>
       </c>
@@ -6376,7 +6376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490" s="4" t="s">
         <v>487</v>
       </c>
@@ -6384,7 +6384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491" s="4" t="s">
         <v>488</v>
       </c>
@@ -6392,7 +6392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492" s="4" t="s">
         <v>489</v>
       </c>
@@ -6400,7 +6400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493" s="4" t="s">
         <v>490</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494" s="4" t="s">
         <v>491</v>
       </c>
@@ -6416,7 +6416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495" s="4" t="s">
         <v>492</v>
       </c>
@@ -6424,7 +6424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496" s="4" t="s">
         <v>493</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497" s="4" t="s">
         <v>494</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498" s="4" t="s">
         <v>495</v>
       </c>
@@ -6448,7 +6448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499" s="4" t="s">
         <v>496</v>
       </c>
@@ -6465,17 +6465,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF64AAF-84FB-4C5C-BBE5-C3AE86427645}">
   <dimension ref="A1:B349"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A339" workbookViewId="0">
+      <selection activeCell="A353" sqref="A353"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="237.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>500</v>
       </c>
@@ -6483,1742 +6483,1742 @@
         <v>499</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>99</v>
       </c>

--- a/Excel_pastel.xlsx
+++ b/Excel_pastel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephanieliu/Desktop/GitHub/SegundoSemestre/projeto2_cd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07634379-71F9-9840-82FE-8BBC74697476}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD264CE1-B7A7-3344-81A6-5A37BFFC272E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7338,8 +7338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF64AAF-84FB-4C5C-BBE5-C3AE86427645}">
   <dimension ref="A1:C392"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A321" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C342" sqref="C342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7363,1753 +7363,2776 @@
       <c r="A2" s="2" t="s">
         <v>501</v>
       </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>502</v>
       </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>503</v>
       </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>504</v>
       </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>505</v>
       </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>506</v>
       </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>507</v>
       </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>508</v>
       </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>509</v>
       </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>510</v>
       </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>511</v>
       </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>512</v>
       </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>513</v>
       </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>514</v>
       </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="C49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="C51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="C71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="C74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="C79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="C80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="96" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="C83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="C98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="C102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" ht="160" x14ac:dyDescent="0.2">
+      <c r="C104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="160" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="C110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" ht="128" x14ac:dyDescent="0.2">
+      <c r="C114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="128" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" ht="240" x14ac:dyDescent="0.2">
+      <c r="C115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="240" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="C117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="C137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="112" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="C138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="C141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="C146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="C158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="C175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="C178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="C179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="C192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="C193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="C196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="C198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C202">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="C203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C208">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="C211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="96" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C213">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C216">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C218">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C220">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C226">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C234">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C236">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="C238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="C239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="C241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C243">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C244">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C245">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C247">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C249">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C250">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C251">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C252">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C253">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="C254">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" ht="144" x14ac:dyDescent="0.2">
+      <c r="C255">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="144" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C258">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C261">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C264">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C265">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="C266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C268">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C269">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C270">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C271">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C272">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C275">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C276">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C277">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C278">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C279">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C280">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C281">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C282">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C283">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C284">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C285">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C286">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C287">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C288">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C289">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C290">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="C292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C294">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C295">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="C297">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C298">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="C300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="302" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="303" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="304" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C303">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="305" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C304">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="306" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="C305">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="307" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="308" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C307">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="309" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="C308">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" ht="112" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="310" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="C309">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="311" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="312" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="C311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="313" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C312">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="314" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C313">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="315" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C314">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="316" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C315">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="317" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C316">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="318" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="C317">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="319" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="C318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="320" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="321" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C320">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="322" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C321">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A322" s="2" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="323" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C322">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="324" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="C323">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="325" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C324">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="326" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="327" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C326">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="328" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C327">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="329" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C328">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="330" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C329">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A330" s="2" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="331" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C330">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A331" s="2" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="332" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C331">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A332" s="2" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="333" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C332">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="334" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A334" s="2" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="335" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A335" s="2" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="336" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C335">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A336" s="2" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="337" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C336">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A337" s="2" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="338" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="339" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C338">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A339" s="2" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="340" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C339">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="341" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C340">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A341" s="2" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="342" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C341">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="343" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C342">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="344" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="345" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="346" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="347" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:3" ht="112" x14ac:dyDescent="0.2">
       <c r="A347" s="2" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="348" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="349" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="350" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="351" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="352" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A352" s="2" t="s">
         <v>851</v>
       </c>

--- a/Excel_pastel.xlsx
+++ b/Excel_pastel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephanieliu/Desktop/GitHub/SegundoSemestre/projeto2_cd/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\OneDrive\Faculdade\Insper\2ºSemestre\Ciência dos dados\projeto2_cd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD264CE1-B7A7-3344-81A6-5A37BFFC272E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{AD264CE1-B7A7-3344-81A6-5A37BFFC272E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{C8DACF8D-36D9-4633-9CCB-1E9B35B2A29E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -2803,9 +2803,6 @@
     <t>tô fazendo pastel</t>
   </si>
   <si>
-    <t>to muito tem sem comer o pastel da feira 🤦🏽‍♂️</t>
-  </si>
-  <si>
     <t>to muito triste que o talles saiu pra comprar pastel sem mim e me deixou com fome</t>
   </si>
   <si>
@@ -2917,6 +2914,9 @@
   </si>
   <si>
     <t>vou ter meu date sozinha comendo pastel e caldo de cana pq eu mereço</t>
+  </si>
+  <si>
+    <t>to muito tempo sem comer o pastel da feira 🤦🏽‍♂️</t>
   </si>
 </sst>
 </file>
@@ -3006,7 +3006,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3332,12 +3332,12 @@
       <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="185.1640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="185.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>496</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -3417,7 +3417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>22</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>26</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>27</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>28</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>29</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>30</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>31</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>32</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>33</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>34</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>35</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>36</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>37</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>38</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>39</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>40</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>41</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>42</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>43</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>44</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>45</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>46</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>47</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>48</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>49</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>50</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>51</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>52</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>53</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>54</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>55</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>56</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>57</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>58</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>59</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>60</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>61</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>62</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>63</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>64</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>65</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>66</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>67</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>68</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>69</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>70</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>71</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>72</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>73</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>74</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>75</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>76</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>77</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>78</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>79</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>80</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>81</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>82</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>83</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>84</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>85</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>86</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>87</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>88</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>89</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>90</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>91</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>92</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>93</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>94</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>95</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>96</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>97</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>98</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>99</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>100</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>101</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>102</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>103</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>104</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>105</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>106</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>107</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>108</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>109</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>110</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>111</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>112</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>113</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>114</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>115</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>116</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>117</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>118</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>119</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>120</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>121</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>122</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>123</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>124</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>125</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>126</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>127</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>128</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>129</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>130</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>131</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>132</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>133</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>134</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>135</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>136</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>137</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>138</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>139</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
         <v>140</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>141</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>142</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>143</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>144</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>145</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>146</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>147</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
         <v>148</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
         <v>149</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>150</v>
       </c>
@@ -4553,7 +4553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>151</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>152</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
         <v>153</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
         <v>154</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
         <v>155</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
         <v>156</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
         <v>157</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
         <v>158</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
         <v>159</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>160</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
         <v>161</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
         <v>162</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
         <v>163</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
         <v>164</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
         <v>165</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
         <v>166</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
         <v>167</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>168</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
         <v>169</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
         <v>170</v>
       </c>
@@ -4713,7 +4713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
         <v>171</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
         <v>172</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
         <v>173</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>174</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
         <v>175</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>176</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
         <v>177</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
         <v>178</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
         <v>179</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
         <v>180</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
         <v>181</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
         <v>182</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
         <v>183</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
         <v>184</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
         <v>185</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
         <v>186</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
         <v>187</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
         <v>188</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
         <v>189</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
         <v>190</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
         <v>191</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
         <v>192</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
         <v>193</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
         <v>194</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
         <v>195</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
         <v>196</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
         <v>197</v>
       </c>
@@ -4929,7 +4929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
         <v>198</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
         <v>199</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
         <v>200</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
         <v>201</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
         <v>202</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
         <v>203</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
         <v>204</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
         <v>205</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
         <v>206</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
         <v>207</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
         <v>208</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
         <v>209</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
         <v>210</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
         <v>211</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
         <v>212</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
         <v>213</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
         <v>214</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
         <v>215</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
         <v>216</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
         <v>217</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
         <v>218</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
         <v>219</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
         <v>220</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
         <v>221</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
         <v>222</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
         <v>223</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
         <v>224</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
         <v>225</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
         <v>226</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
         <v>227</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
         <v>228</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
         <v>229</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
         <v>230</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
         <v>231</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
         <v>232</v>
       </c>
@@ -5209,7 +5209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
         <v>233</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
         <v>234</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
         <v>235</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
         <v>236</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
         <v>237</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
         <v>238</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
         <v>239</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
         <v>240</v>
       </c>
@@ -5273,7 +5273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="176" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>241</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
         <v>242</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
         <v>243</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
         <v>244</v>
       </c>
@@ -5305,7 +5305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
         <v>245</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
         <v>246</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
         <v>247</v>
       </c>
@@ -5329,7 +5329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="s">
         <v>248</v>
       </c>
@@ -5337,7 +5337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
         <v>249</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
         <v>250</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
         <v>251</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
         <v>252</v>
       </c>
@@ -5369,7 +5369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
         <v>253</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
         <v>254</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="4" t="s">
         <v>255</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="4" t="s">
         <v>256</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="4" t="s">
         <v>257</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="4" t="s">
         <v>258</v>
       </c>
@@ -5417,7 +5417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="4" t="s">
         <v>259</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="4" t="s">
         <v>260</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="4" t="s">
         <v>261</v>
       </c>
@@ -5441,7 +5441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="4" t="s">
         <v>262</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="4" t="s">
         <v>263</v>
       </c>
@@ -5457,7 +5457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="4" t="s">
         <v>264</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="4" t="s">
         <v>265</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="4" t="s">
         <v>266</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="4" t="s">
         <v>267</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="4" t="s">
         <v>268</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="4" t="s">
         <v>269</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="4" t="s">
         <v>270</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="4" t="s">
         <v>271</v>
       </c>
@@ -5521,7 +5521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="4" t="s">
         <v>272</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="4" t="s">
         <v>273</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="4" t="s">
         <v>274</v>
       </c>
@@ -5545,7 +5545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="4" t="s">
         <v>275</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="4" t="s">
         <v>276</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
         <v>277</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="s">
         <v>278</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
         <v>279</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="4" t="s">
         <v>280</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="4" t="s">
         <v>281</v>
       </c>
@@ -5601,7 +5601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="4" t="s">
         <v>282</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="4" t="s">
         <v>283</v>
       </c>
@@ -5617,7 +5617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="4" t="s">
         <v>284</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="4" t="s">
         <v>285</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="4" t="s">
         <v>286</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="4" t="s">
         <v>287</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="s">
         <v>288</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="4" t="s">
         <v>289</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="4" t="s">
         <v>290</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="4" t="s">
         <v>291</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="4" t="s">
         <v>292</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="4" t="s">
         <v>293</v>
       </c>
@@ -5697,7 +5697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="4" t="s">
         <v>294</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="4" t="s">
         <v>295</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="4" t="s">
         <v>296</v>
       </c>
@@ -5721,7 +5721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="4" t="s">
         <v>297</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="4" t="s">
         <v>298</v>
       </c>
@@ -5737,7 +5737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="4" t="s">
         <v>299</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="4" t="s">
         <v>300</v>
       </c>
@@ -5753,7 +5753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="4" t="s">
         <v>301</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="4" t="s">
         <v>302</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="4" t="s">
         <v>303</v>
       </c>
@@ -5777,7 +5777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="4" t="s">
         <v>304</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="4" t="s">
         <v>305</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="4" t="s">
         <v>306</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="4" t="s">
         <v>307</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="4" t="s">
         <v>308</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="4" t="s">
         <v>309</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="4" t="s">
         <v>310</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="4" t="s">
         <v>311</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="4" t="s">
         <v>312</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="4" t="s">
         <v>313</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="4" t="s">
         <v>314</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="4" t="s">
         <v>315</v>
       </c>
@@ -5873,7 +5873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="4" t="s">
         <v>316</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="4" t="s">
         <v>317</v>
       </c>
@@ -5889,7 +5889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="4" t="s">
         <v>318</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="4" t="s">
         <v>319</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="4" t="s">
         <v>320</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="4" t="s">
         <v>321</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="4" t="s">
         <v>322</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="4" t="s">
         <v>323</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="4" t="s">
         <v>324</v>
       </c>
@@ -5945,7 +5945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="4" t="s">
         <v>325</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="4" t="s">
         <v>326</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="4" t="s">
         <v>327</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="4" t="s">
         <v>328</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="4" t="s">
         <v>329</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="4" t="s">
         <v>330</v>
       </c>
@@ -5993,7 +5993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="4" t="s">
         <v>331</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="4" t="s">
         <v>332</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="4" t="s">
         <v>333</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="4" t="s">
         <v>334</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="4" t="s">
         <v>335</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="4" t="s">
         <v>336</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="4" t="s">
         <v>337</v>
       </c>
@@ -6049,7 +6049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="4" t="s">
         <v>338</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="4" t="s">
         <v>339</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="4" t="s">
         <v>340</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="4" t="s">
         <v>341</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="4" t="s">
         <v>342</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="4" t="s">
         <v>343</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="4" t="s">
         <v>344</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="4" t="s">
         <v>345</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="4" t="s">
         <v>346</v>
       </c>
@@ -6121,7 +6121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="4" t="s">
         <v>347</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="4" t="s">
         <v>348</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="4" t="s">
         <v>349</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="4" t="s">
         <v>350</v>
       </c>
@@ -6153,7 +6153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="4" t="s">
         <v>351</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="4" t="s">
         <v>352</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="4" t="s">
         <v>353</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="4" t="s">
         <v>354</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="4" t="s">
         <v>355</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="4" t="s">
         <v>356</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="4" t="s">
         <v>357</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="4" t="s">
         <v>358</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="4" t="s">
         <v>359</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="4" t="s">
         <v>360</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="4" t="s">
         <v>361</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="4" t="s">
         <v>362</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="4" t="s">
         <v>363</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="4" t="s">
         <v>364</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="4" t="s">
         <v>499</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="4" t="s">
         <v>365</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="4" t="s">
         <v>366</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="4" t="s">
         <v>367</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="4" t="s">
         <v>368</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="4" t="s">
         <v>369</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="4" t="s">
         <v>370</v>
       </c>
@@ -6321,7 +6321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="4" t="s">
         <v>371</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="4" t="s">
         <v>372</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" s="4" t="s">
         <v>373</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" s="4" t="s">
         <v>374</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" s="4" t="s">
         <v>375</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:2" ht="112" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
         <v>376</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" s="4" t="s">
         <v>377</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" s="4" t="s">
         <v>378</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" s="4" t="s">
         <v>379</v>
       </c>
@@ -6393,7 +6393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" s="4" t="s">
         <v>380</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" s="4" t="s">
         <v>381</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="4" t="s">
         <v>382</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" s="4" t="s">
         <v>383</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" s="4" t="s">
         <v>384</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="4" t="s">
         <v>385</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" s="4" t="s">
         <v>386</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" s="4" t="s">
         <v>387</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" s="4" t="s">
         <v>388</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" s="4" t="s">
         <v>389</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" s="4" t="s">
         <v>390</v>
       </c>
@@ -6481,7 +6481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" s="4" t="s">
         <v>391</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" s="4" t="s">
         <v>392</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" s="4" t="s">
         <v>393</v>
       </c>
@@ -6505,7 +6505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" s="4" t="s">
         <v>394</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" s="4" t="s">
         <v>395</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" s="4" t="s">
         <v>396</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" s="4" t="s">
         <v>397</v>
       </c>
@@ -6537,7 +6537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" s="4" t="s">
         <v>398</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" s="4" t="s">
         <v>399</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" s="4" t="s">
         <v>400</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" s="4" t="s">
         <v>401</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" s="4" t="s">
         <v>402</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" s="4" t="s">
         <v>403</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" s="4" t="s">
         <v>404</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" s="4" t="s">
         <v>405</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" s="4" t="s">
         <v>406</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" s="4" t="s">
         <v>407</v>
       </c>
@@ -6617,7 +6617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" s="4" t="s">
         <v>408</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" s="4" t="s">
         <v>409</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" s="4" t="s">
         <v>410</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" s="4" t="s">
         <v>411</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" s="4" t="s">
         <v>412</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" s="4" t="s">
         <v>413</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" s="4" t="s">
         <v>414</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" s="4" t="s">
         <v>415</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" s="4" t="s">
         <v>416</v>
       </c>
@@ -6689,7 +6689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" s="4" t="s">
         <v>417</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" s="4" t="s">
         <v>418</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" s="4" t="s">
         <v>419</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" s="4" t="s">
         <v>420</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" s="4" t="s">
         <v>421</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" s="4" t="s">
         <v>422</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" s="4" t="s">
         <v>423</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" s="4" t="s">
         <v>424</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" s="4" t="s">
         <v>425</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" s="4" t="s">
         <v>426</v>
       </c>
@@ -6769,7 +6769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" s="4" t="s">
         <v>427</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" s="4" t="s">
         <v>428</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" s="4" t="s">
         <v>429</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" s="4" t="s">
         <v>430</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" s="4" t="s">
         <v>431</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" s="4" t="s">
         <v>432</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" s="4" t="s">
         <v>433</v>
       </c>
@@ -6825,7 +6825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" s="4" t="s">
         <v>434</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" s="4" t="s">
         <v>435</v>
       </c>
@@ -6841,7 +6841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" s="4" t="s">
         <v>436</v>
       </c>
@@ -6849,7 +6849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" s="4" t="s">
         <v>437</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" s="4" t="s">
         <v>438</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="442" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
         <v>439</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" s="4" t="s">
         <v>440</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" s="4" t="s">
         <v>213</v>
       </c>
@@ -6889,7 +6889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" s="4" t="s">
         <v>441</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" s="4" t="s">
         <v>442</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" s="4" t="s">
         <v>443</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" s="4" t="s">
         <v>444</v>
       </c>
@@ -6921,7 +6921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" s="4" t="s">
         <v>445</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" s="4" t="s">
         <v>446</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" s="4" t="s">
         <v>447</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" s="4" t="s">
         <v>448</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" s="4" t="s">
         <v>449</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" s="4" t="s">
         <v>450</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" s="4" t="s">
         <v>451</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" s="4" t="s">
         <v>452</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" s="4" t="s">
         <v>453</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" s="4" t="s">
         <v>454</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" s="4" t="s">
         <v>455</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" s="4" t="s">
         <v>456</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
         <v>457</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" s="4" t="s">
         <v>458</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" s="4" t="s">
         <v>459</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" s="4" t="s">
         <v>460</v>
       </c>
@@ -7049,7 +7049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" s="4" t="s">
         <v>461</v>
       </c>
@@ -7057,7 +7057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" s="4" t="s">
         <v>462</v>
       </c>
@@ -7065,7 +7065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" s="4" t="s">
         <v>463</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" s="4" t="s">
         <v>464</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" s="4" t="s">
         <v>465</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" s="4" t="s">
         <v>466</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" s="4" t="s">
         <v>467</v>
       </c>
@@ -7105,7 +7105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" s="4" t="s">
         <v>468</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" s="4" t="s">
         <v>469</v>
       </c>
@@ -7121,7 +7121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" s="4" t="s">
         <v>470</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" s="4" t="s">
         <v>471</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" s="4" t="s">
         <v>472</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" s="4" t="s">
         <v>473</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" s="4" t="s">
         <v>474</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" s="4" t="s">
         <v>475</v>
       </c>
@@ -7169,7 +7169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" s="4" t="s">
         <v>476</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" s="4" t="s">
         <v>477</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" s="4" t="s">
         <v>478</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" s="4" t="s">
         <v>479</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" s="4" t="s">
         <v>480</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" s="4" t="s">
         <v>481</v>
       </c>
@@ -7217,7 +7217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" s="4" t="s">
         <v>482</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" s="4" t="s">
         <v>483</v>
       </c>
@@ -7233,7 +7233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" s="4" t="s">
         <v>484</v>
       </c>
@@ -7241,7 +7241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" s="4" t="s">
         <v>485</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" s="4" t="s">
         <v>486</v>
       </c>
@@ -7257,7 +7257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" s="4" t="s">
         <v>487</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" s="4" t="s">
         <v>488</v>
       </c>
@@ -7273,7 +7273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" s="4" t="s">
         <v>489</v>
       </c>
@@ -7281,7 +7281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" s="4" t="s">
         <v>490</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" s="4" t="s">
         <v>491</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" s="4" t="s">
         <v>492</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" s="4" t="s">
         <v>493</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" s="4" t="s">
         <v>494</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" s="4" t="s">
         <v>495</v>
       </c>
@@ -7338,17 +7338,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF64AAF-84FB-4C5C-BBE5-C3AE86427645}">
   <dimension ref="A1:C392"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A321" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C342" sqref="C342"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C393" sqref="C393"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="137.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="137.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>498</v>
       </c>
@@ -7359,7 +7359,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>501</v>
       </c>
@@ -7367,7 +7367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>502</v>
       </c>
@@ -7375,7 +7375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>503</v>
       </c>
@@ -7383,7 +7383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>504</v>
       </c>
@@ -7391,7 +7391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>505</v>
       </c>
@@ -7399,7 +7399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>506</v>
       </c>
@@ -7407,7 +7407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>507</v>
       </c>
@@ -7415,7 +7415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>508</v>
       </c>
@@ -7423,7 +7423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>509</v>
       </c>
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>510</v>
       </c>
@@ -7439,7 +7439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>511</v>
       </c>
@@ -7447,7 +7447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>512</v>
       </c>
@@ -7455,7 +7455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>513</v>
       </c>
@@ -7463,7 +7463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>514</v>
       </c>
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>515</v>
       </c>
@@ -7479,7 +7479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>516</v>
       </c>
@@ -7487,7 +7487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>517</v>
       </c>
@@ -7495,7 +7495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>518</v>
       </c>
@@ -7503,7 +7503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>519</v>
       </c>
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>520</v>
       </c>
@@ -7519,7 +7519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>521</v>
       </c>
@@ -7527,7 +7527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>522</v>
       </c>
@@ -7535,7 +7535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>523</v>
       </c>
@@ -7543,7 +7543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>524</v>
       </c>
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>525</v>
       </c>
@@ -7559,7 +7559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>526</v>
       </c>
@@ -7567,7 +7567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>527</v>
       </c>
@@ -7575,7 +7575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>528</v>
       </c>
@@ -7583,7 +7583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>529</v>
       </c>
@@ -7591,7 +7591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>530</v>
       </c>
@@ -7599,7 +7599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>531</v>
       </c>
@@ -7607,7 +7607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>532</v>
       </c>
@@ -7615,7 +7615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>533</v>
       </c>
@@ -7623,7 +7623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>534</v>
       </c>
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>535</v>
       </c>
@@ -7639,7 +7639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>536</v>
       </c>
@@ -7647,7 +7647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>537</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>538</v>
       </c>
@@ -7663,7 +7663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>539</v>
       </c>
@@ -7671,7 +7671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>540</v>
       </c>
@@ -7679,7 +7679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>541</v>
       </c>
@@ -7687,7 +7687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>542</v>
       </c>
@@ -7695,7 +7695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>543</v>
       </c>
@@ -7703,7 +7703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>544</v>
       </c>
@@ -7711,7 +7711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>545</v>
       </c>
@@ -7719,7 +7719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>546</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>547</v>
       </c>
@@ -7735,7 +7735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>548</v>
       </c>
@@ -7743,7 +7743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>549</v>
       </c>
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>550</v>
       </c>
@@ -7759,7 +7759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>551</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>552</v>
       </c>
@@ -7775,7 +7775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>553</v>
       </c>
@@ -7783,7 +7783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>554</v>
       </c>
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>555</v>
       </c>
@@ -7799,7 +7799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>556</v>
       </c>
@@ -7807,7 +7807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>557</v>
       </c>
@@ -7815,7 +7815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>558</v>
       </c>
@@ -7823,7 +7823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>559</v>
       </c>
@@ -7831,7 +7831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>560</v>
       </c>
@@ -7839,7 +7839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>561</v>
       </c>
@@ -7847,7 +7847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>562</v>
       </c>
@@ -7855,7 +7855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>563</v>
       </c>
@@ -7863,7 +7863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>564</v>
       </c>
@@ -7871,7 +7871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>565</v>
       </c>
@@ -7879,7 +7879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>566</v>
       </c>
@@ -7887,7 +7887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>567</v>
       </c>
@@ -7895,7 +7895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>568</v>
       </c>
@@ -7903,7 +7903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>569</v>
       </c>
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>570</v>
       </c>
@@ -7919,7 +7919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>571</v>
       </c>
@@ -7927,7 +7927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>572</v>
       </c>
@@ -7935,7 +7935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>573</v>
       </c>
@@ -7943,7 +7943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>574</v>
       </c>
@@ -7951,7 +7951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>575</v>
       </c>
@@ -7959,7 +7959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>576</v>
       </c>
@@ -7967,7 +7967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>577</v>
       </c>
@@ -7975,7 +7975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>578</v>
       </c>
@@ -7983,7 +7983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>579</v>
       </c>
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>580</v>
       </c>
@@ -7999,7 +7999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>581</v>
       </c>
@@ -8007,7 +8007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>582</v>
       </c>
@@ -8015,7 +8015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>583</v>
       </c>
@@ -8023,7 +8023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>584</v>
       </c>
@@ -8031,7 +8031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>585</v>
       </c>
@@ -8039,7 +8039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>586</v>
       </c>
@@ -8047,7 +8047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>587</v>
       </c>
@@ -8055,7 +8055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>588</v>
       </c>
@@ -8063,7 +8063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>589</v>
       </c>
@@ -8071,7 +8071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>590</v>
       </c>
@@ -8079,7 +8079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>591</v>
       </c>
@@ -8087,7 +8087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>592</v>
       </c>
@@ -8095,7 +8095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>593</v>
       </c>
@@ -8103,7 +8103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>594</v>
       </c>
@@ -8111,7 +8111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>595</v>
       </c>
@@ -8119,7 +8119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>596</v>
       </c>
@@ -8127,7 +8127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>597</v>
       </c>
@@ -8135,7 +8135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>598</v>
       </c>
@@ -8143,7 +8143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>599</v>
       </c>
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>600</v>
       </c>
@@ -8159,7 +8159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>601</v>
       </c>
@@ -8167,7 +8167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>602</v>
       </c>
@@ -8175,7 +8175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>603</v>
       </c>
@@ -8183,7 +8183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="160" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>604</v>
       </c>
@@ -8191,7 +8191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>605</v>
       </c>
@@ -8199,7 +8199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>606</v>
       </c>
@@ -8207,7 +8207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>607</v>
       </c>
@@ -8215,7 +8215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>608</v>
       </c>
@@ -8223,7 +8223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>609</v>
       </c>
@@ -8231,7 +8231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>610</v>
       </c>
@@ -8239,7 +8239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>611</v>
       </c>
@@ -8247,7 +8247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>612</v>
       </c>
@@ -8255,7 +8255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>613</v>
       </c>
@@ -8263,7 +8263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="128" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>614</v>
       </c>
@@ -8271,7 +8271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="240" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" ht="225" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>615</v>
       </c>
@@ -8279,7 +8279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>616</v>
       </c>
@@ -8287,7 +8287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>617</v>
       </c>
@@ -8295,7 +8295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>618</v>
       </c>
@@ -8303,7 +8303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>619</v>
       </c>
@@ -8311,7 +8311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>620</v>
       </c>
@@ -8319,7 +8319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>621</v>
       </c>
@@ -8327,7 +8327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>622</v>
       </c>
@@ -8335,7 +8335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>623</v>
       </c>
@@ -8343,7 +8343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>624</v>
       </c>
@@ -8351,7 +8351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>625</v>
       </c>
@@ -8359,7 +8359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>626</v>
       </c>
@@ -8367,7 +8367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>627</v>
       </c>
@@ -8375,7 +8375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>628</v>
       </c>
@@ -8383,7 +8383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>629</v>
       </c>
@@ -8391,7 +8391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>630</v>
       </c>
@@ -8399,7 +8399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>631</v>
       </c>
@@ -8407,7 +8407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>632</v>
       </c>
@@ -8415,7 +8415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>633</v>
       </c>
@@ -8423,7 +8423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>634</v>
       </c>
@@ -8431,7 +8431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>635</v>
       </c>
@@ -8439,7 +8439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>636</v>
       </c>
@@ -8447,7 +8447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="112" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>637</v>
       </c>
@@ -8455,7 +8455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>638</v>
       </c>
@@ -8463,7 +8463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>639</v>
       </c>
@@ -8471,7 +8471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>640</v>
       </c>
@@ -8479,7 +8479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>641</v>
       </c>
@@ -8487,7 +8487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>642</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>643</v>
       </c>
@@ -8503,7 +8503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>644</v>
       </c>
@@ -8511,7 +8511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>645</v>
       </c>
@@ -8519,7 +8519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>646</v>
       </c>
@@ -8527,7 +8527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>647</v>
       </c>
@@ -8535,7 +8535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>648</v>
       </c>
@@ -8543,7 +8543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>649</v>
       </c>
@@ -8551,7 +8551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>650</v>
       </c>
@@ -8559,7 +8559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>651</v>
       </c>
@@ -8567,7 +8567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>652</v>
       </c>
@@ -8575,7 +8575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>653</v>
       </c>
@@ -8583,7 +8583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>654</v>
       </c>
@@ -8591,7 +8591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>655</v>
       </c>
@@ -8599,7 +8599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>656</v>
       </c>
@@ -8607,7 +8607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>657</v>
       </c>
@@ -8615,7 +8615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>658</v>
       </c>
@@ -8623,7 +8623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>659</v>
       </c>
@@ -8631,7 +8631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>660</v>
       </c>
@@ -8639,7 +8639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>661</v>
       </c>
@@ -8647,7 +8647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>662</v>
       </c>
@@ -8655,7 +8655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>663</v>
       </c>
@@ -8663,7 +8663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>664</v>
       </c>
@@ -8671,7 +8671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>665</v>
       </c>
@@ -8679,7 +8679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>666</v>
       </c>
@@ -8687,7 +8687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>667</v>
       </c>
@@ -8695,7 +8695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>668</v>
       </c>
@@ -8703,7 +8703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>669</v>
       </c>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>670</v>
       </c>
@@ -8719,7 +8719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>671</v>
       </c>
@@ -8727,7 +8727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>672</v>
       </c>
@@ -8735,7 +8735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>673</v>
       </c>
@@ -8743,7 +8743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>674</v>
       </c>
@@ -8751,7 +8751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>675</v>
       </c>
@@ -8759,7 +8759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>676</v>
       </c>
@@ -8767,7 +8767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>677</v>
       </c>
@@ -8775,7 +8775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>678</v>
       </c>
@@ -8783,7 +8783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>679</v>
       </c>
@@ -8791,7 +8791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>680</v>
       </c>
@@ -8799,7 +8799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>681</v>
       </c>
@@ -8807,7 +8807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>682</v>
       </c>
@@ -8815,7 +8815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>683</v>
       </c>
@@ -8823,7 +8823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>684</v>
       </c>
@@ -8831,7 +8831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>685</v>
       </c>
@@ -8839,7 +8839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>686</v>
       </c>
@@ -8847,7 +8847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>687</v>
       </c>
@@ -8855,7 +8855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>688</v>
       </c>
@@ -8863,7 +8863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>689</v>
       </c>
@@ -8871,7 +8871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>690</v>
       </c>
@@ -8879,7 +8879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>691</v>
       </c>
@@ -8887,7 +8887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>692</v>
       </c>
@@ -8895,7 +8895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>693</v>
       </c>
@@ -8903,7 +8903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>694</v>
       </c>
@@ -8911,7 +8911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>695</v>
       </c>
@@ -8919,7 +8919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>696</v>
       </c>
@@ -8927,7 +8927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>697</v>
       </c>
@@ -8935,7 +8935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>698</v>
       </c>
@@ -8943,7 +8943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>699</v>
       </c>
@@ -8951,7 +8951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>700</v>
       </c>
@@ -8959,7 +8959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>701</v>
       </c>
@@ -8967,7 +8967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>702</v>
       </c>
@@ -8975,7 +8975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>703</v>
       </c>
@@ -8983,7 +8983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>704</v>
       </c>
@@ -8991,7 +8991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>705</v>
       </c>
@@ -8999,7 +8999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>706</v>
       </c>
@@ -9007,7 +9007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>707</v>
       </c>
@@ -9015,7 +9015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>708</v>
       </c>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>709</v>
       </c>
@@ -9031,7 +9031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>710</v>
       </c>
@@ -9039,7 +9039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>711</v>
       </c>
@@ -9047,7 +9047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>712</v>
       </c>
@@ -9055,7 +9055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>713</v>
       </c>
@@ -9063,7 +9063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>714</v>
       </c>
@@ -9071,7 +9071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>715</v>
       </c>
@@ -9079,7 +9079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>716</v>
       </c>
@@ -9087,7 +9087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>717</v>
       </c>
@@ -9095,7 +9095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>718</v>
       </c>
@@ -9103,7 +9103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>719</v>
       </c>
@@ -9111,7 +9111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>720</v>
       </c>
@@ -9119,7 +9119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>721</v>
       </c>
@@ -9127,7 +9127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>722</v>
       </c>
@@ -9135,7 +9135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>723</v>
       </c>
@@ -9143,7 +9143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>724</v>
       </c>
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>725</v>
       </c>
@@ -9159,7 +9159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>726</v>
       </c>
@@ -9167,7 +9167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>727</v>
       </c>
@@ -9175,7 +9175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>728</v>
       </c>
@@ -9183,7 +9183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>729</v>
       </c>
@@ -9191,7 +9191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>730</v>
       </c>
@@ -9199,7 +9199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>731</v>
       </c>
@@ -9207,7 +9207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>732</v>
       </c>
@@ -9215,7 +9215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>733</v>
       </c>
@@ -9223,7 +9223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>734</v>
       </c>
@@ -9231,7 +9231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>735</v>
       </c>
@@ -9239,7 +9239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>736</v>
       </c>
@@ -9247,7 +9247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>737</v>
       </c>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>738</v>
       </c>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>739</v>
       </c>
@@ -9271,7 +9271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>740</v>
       </c>
@@ -9279,7 +9279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>741</v>
       </c>
@@ -9287,7 +9287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>742</v>
       </c>
@@ -9295,7 +9295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>743</v>
       </c>
@@ -9303,7 +9303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>744</v>
       </c>
@@ -9311,7 +9311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>745</v>
       </c>
@@ -9319,7 +9319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>746</v>
       </c>
@@ -9327,7 +9327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>747</v>
       </c>
@@ -9335,7 +9335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>748</v>
       </c>
@@ -9343,7 +9343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>749</v>
       </c>
@@ -9351,7 +9351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>750</v>
       </c>
@@ -9359,7 +9359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>751</v>
       </c>
@@ -9367,7 +9367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>752</v>
       </c>
@@ -9375,7 +9375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>753</v>
       </c>
@@ -9383,7 +9383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>754</v>
       </c>
@@ -9391,7 +9391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="144" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>755</v>
       </c>
@@ -9399,7 +9399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>756</v>
       </c>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>757</v>
       </c>
@@ -9415,7 +9415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>758</v>
       </c>
@@ -9423,7 +9423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>759</v>
       </c>
@@ -9431,7 +9431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>760</v>
       </c>
@@ -9439,7 +9439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>761</v>
       </c>
@@ -9447,7 +9447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>762</v>
       </c>
@@ -9455,7 +9455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>763</v>
       </c>
@@ -9463,7 +9463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>764</v>
       </c>
@@ -9471,7 +9471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>765</v>
       </c>
@@ -9479,7 +9479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>766</v>
       </c>
@@ -9487,7 +9487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>767</v>
       </c>
@@ -9495,7 +9495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>768</v>
       </c>
@@ -9503,7 +9503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>769</v>
       </c>
@@ -9511,7 +9511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>770</v>
       </c>
@@ -9519,7 +9519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>771</v>
       </c>
@@ -9527,7 +9527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>772</v>
       </c>
@@ -9535,7 +9535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>773</v>
       </c>
@@ -9543,7 +9543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>774</v>
       </c>
@@ -9551,7 +9551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>775</v>
       </c>
@@ -9559,7 +9559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>776</v>
       </c>
@@ -9567,7 +9567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>777</v>
       </c>
@@ -9575,7 +9575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>778</v>
       </c>
@@ -9583,7 +9583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>779</v>
       </c>
@@ -9591,7 +9591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>780</v>
       </c>
@@ -9599,7 +9599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>781</v>
       </c>
@@ -9607,7 +9607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>782</v>
       </c>
@@ -9615,7 +9615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>783</v>
       </c>
@@ -9623,7 +9623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>784</v>
       </c>
@@ -9631,7 +9631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>785</v>
       </c>
@@ -9639,7 +9639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>786</v>
       </c>
@@ -9647,7 +9647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>787</v>
       </c>
@@ -9655,7 +9655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>788</v>
       </c>
@@ -9663,7 +9663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>789</v>
       </c>
@@ -9671,7 +9671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>790</v>
       </c>
@@ -9679,7 +9679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>791</v>
       </c>
@@ -9687,7 +9687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>792</v>
       </c>
@@ -9695,7 +9695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>793</v>
       </c>
@@ -9703,7 +9703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>794</v>
       </c>
@@ -9711,7 +9711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>795</v>
       </c>
@@ -9719,7 +9719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>796</v>
       </c>
@@ -9727,7 +9727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>797</v>
       </c>
@@ -9735,7 +9735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>798</v>
       </c>
@@ -9743,7 +9743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>799</v>
       </c>
@@ -9751,7 +9751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>800</v>
       </c>
@@ -9759,7 +9759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>801</v>
       </c>
@@ -9767,7 +9767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>802</v>
       </c>
@@ -9775,7 +9775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>803</v>
       </c>
@@ -9783,7 +9783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>804</v>
       </c>
@@ -9791,7 +9791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>805</v>
       </c>
@@ -9799,7 +9799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>806</v>
       </c>
@@ -9807,7 +9807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>807</v>
       </c>
@@ -9815,7 +9815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="112" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>808</v>
       </c>
@@ -9823,7 +9823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>809</v>
       </c>
@@ -9831,7 +9831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>810</v>
       </c>
@@ -9839,7 +9839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>811</v>
       </c>
@@ -9847,7 +9847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>812</v>
       </c>
@@ -9855,7 +9855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>813</v>
       </c>
@@ -9863,7 +9863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>814</v>
       </c>
@@ -9871,7 +9871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>815</v>
       </c>
@@ -9879,7 +9879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>816</v>
       </c>
@@ -9887,7 +9887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>817</v>
       </c>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>818</v>
       </c>
@@ -9903,7 +9903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>819</v>
       </c>
@@ -9911,7 +9911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>820</v>
       </c>
@@ -9919,7 +9919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>821</v>
       </c>
@@ -9927,7 +9927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
         <v>822</v>
       </c>
@@ -9935,7 +9935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
         <v>823</v>
       </c>
@@ -9943,7 +9943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
         <v>824</v>
       </c>
@@ -9951,7 +9951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
         <v>825</v>
       </c>
@@ -9959,7 +9959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
         <v>826</v>
       </c>
@@ -9967,7 +9967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>827</v>
       </c>
@@ -9975,7 +9975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
         <v>828</v>
       </c>
@@ -9983,7 +9983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
         <v>829</v>
       </c>
@@ -9991,7 +9991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
         <v>830</v>
       </c>
@@ -9999,7 +9999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
         <v>831</v>
       </c>
@@ -10007,7 +10007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
         <v>832</v>
       </c>
@@ -10015,7 +10015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>833</v>
       </c>
@@ -10023,7 +10023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
         <v>834</v>
       </c>
@@ -10031,7 +10031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="336" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
         <v>835</v>
       </c>
@@ -10039,7 +10039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>836</v>
       </c>
@@ -10047,7 +10047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>837</v>
       </c>
@@ -10055,7 +10055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
         <v>838</v>
       </c>
@@ -10063,7 +10063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
         <v>839</v>
       </c>
@@ -10071,7 +10071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>840</v>
       </c>
@@ -10079,7 +10079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="342" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
         <v>841</v>
       </c>
@@ -10087,254 +10087,404 @@
         <v>2</v>
       </c>
     </row>
-    <row r="343" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="344" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="C343">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="345" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="C344">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="346" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="C345">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="347" spans="1:3" ht="112" x14ac:dyDescent="0.2">
+      <c r="C346">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="348" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="C347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="349" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="C348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="350" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="C349">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="351" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="C350">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="352" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="C351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="353" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C352">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="354" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="355" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C354">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="356" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C355">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="357" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C356">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="358" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C357">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="C358">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="2" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="359" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A359" s="2" t="s">
+      <c r="C359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A360" s="2" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="360" spans="1:1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A360" s="2" t="s">
+      <c r="C360">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="2" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="361" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A361" s="2" t="s">
+      <c r="C361">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="2" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="362" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A362" s="2" t="s">
+      <c r="C362">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="2" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="363" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A363" s="2" t="s">
+      <c r="C363">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="2" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="364" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A364" s="2" t="s">
+      <c r="C364">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="2" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="365" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A365" s="2" t="s">
+      <c r="C365">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="2" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="366" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A366" s="2" t="s">
+      <c r="C366">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A367" s="2" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="367" spans="1:1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A367" s="2" t="s">
+      <c r="C367">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A368" s="2" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="368" spans="1:1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A368" s="2" t="s">
+      <c r="C368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="2" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="369" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A369" s="2" t="s">
+      <c r="C369">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="2" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="370" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A370" s="2" t="s">
+      <c r="C370">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="2" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row r="371" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A371" s="2" t="s">
+      <c r="C371">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="2" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="372" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A372" s="2" t="s">
+      <c r="C372">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="2" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="373" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A373" s="2" t="s">
+      <c r="C373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="2" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="374" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A374" s="2" t="s">
+      <c r="C374">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="2" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="375" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A375" s="2" t="s">
+      <c r="C375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="2" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="376" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A376" s="2" t="s">
+      <c r="C376">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" s="2" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row r="377" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A377" s="2" t="s">
+      <c r="C377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="2" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="378" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A378" s="2" t="s">
+      <c r="C378">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="2" t="s">
         <v>877</v>
       </c>
-    </row>
-    <row r="379" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A379" s="2" t="s">
+      <c r="C379">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="2" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="380" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A380" s="2" t="s">
+      <c r="C380">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="2" t="s">
         <v>879</v>
       </c>
-    </row>
-    <row r="381" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A381" s="2" t="s">
+      <c r="C381">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="2" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="382" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A382" s="2" t="s">
+      <c r="C382">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="2" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="383" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A383" s="2" t="s">
+      <c r="C383">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="2" t="s">
         <v>882</v>
       </c>
-    </row>
-    <row r="384" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A384" s="2" t="s">
+      <c r="C384">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" s="2" t="s">
         <v>883</v>
       </c>
-    </row>
-    <row r="385" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A385" s="2" t="s">
+      <c r="C385">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" s="2" t="s">
         <v>884</v>
       </c>
-    </row>
-    <row r="386" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A386" s="2" t="s">
+      <c r="C386">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" s="2" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="387" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A387" s="2" t="s">
+      <c r="C387">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" s="2" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="388" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A388" s="2" t="s">
+      <c r="C388">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" s="2" t="s">
         <v>887</v>
       </c>
-    </row>
-    <row r="389" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A389" s="2" t="s">
+      <c r="C389">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A390" s="2" t="s">
         <v>888</v>
       </c>
-    </row>
-    <row r="390" spans="1:1" ht="144" x14ac:dyDescent="0.2">
-      <c r="A390" s="2" t="s">
+      <c r="C390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" s="2" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row r="391" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A391" s="2" t="s">
+      <c r="C391">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" s="2" t="s">
         <v>890</v>
       </c>
-    </row>
-    <row r="392" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A392" s="2" t="s">
-        <v>891</v>
+      <c r="C392">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
